--- a/ACME/T_Result.xlsx
+++ b/ACME/T_Result.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ICTCoC\Documents\UiPath\RPA수업\ACME\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7720A445-4DE9-4C1E-B7D4-F73344AC6ABD}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C98EE9C-C869-4073-8170-0CD496D1CC96}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="21570" windowHeight="10035" xr2:uid="{CD800019-19D6-4622-9076-DAFEA4956B1A}"/>
   </bookViews>
@@ -27,48 +27,343 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="118">
   <si>
+    <t>Generate Yearly Report for Vendor</t>
+  </si>
+  <si>
+    <t>WI4</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>Research Client Check Copy</t>
+  </si>
+  <si>
+    <t>WI2</t>
+  </si>
+  <si>
+    <t>Verify Account Position</t>
+  </si>
+  <si>
+    <t>WI1</t>
+  </si>
+  <si>
+    <t>Calculate Client Security Hash</t>
+  </si>
+  <si>
+    <t>WI5</t>
+  </si>
+  <si>
+    <t>Process Vendor Invoice</t>
+  </si>
+  <si>
+    <t>WI3</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813341</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813399</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813392</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813375</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813351</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813357</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813321</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813406</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813358</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813394</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813333</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813323</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813345</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813404</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813306</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813372</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813324</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813342</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813397</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813416</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813410</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813314</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813336</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813421</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813310</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813334</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813419</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813363</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813317</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813307</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813415</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813313</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813315</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813426</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813405</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813329</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813423</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813304</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813325</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813350</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813381</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813322</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813383</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813412</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813391</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813408</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813308</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813343</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813369</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813326</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813312</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813360</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813319</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813417</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813316</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813422</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813355</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813328</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813371</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813303</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813403</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813398</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813340</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813388</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813339</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813335</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813424</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813344</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813401</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813418</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813402</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813413</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813400</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813330</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813374</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813387</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813353</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813409</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813385</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813396</t>
+  </si>
+  <si>
     <t>Actions</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Actions Url</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>WIID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Description</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Type</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Status</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>Date</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813362</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813382</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813309</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813425</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813379</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813384</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813376</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813390</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813373</t>
+  </si>
+  <si>
+    <t>https://acme-test.uipath.com/work-items/98813356</t>
   </si>
   <si>
     <t>https://acme-test.uipath.com/work-items/98813332</t>
   </si>
   <si>
-    <t>Generate Yearly Report for Vendor</t>
-  </si>
-  <si>
-    <t>WI4</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
     <t>https://acme-test.uipath.com/work-items/98813366</t>
   </si>
   <si>
-    <t>Research Client Check Copy</t>
-  </si>
-  <si>
-    <t>WI2</t>
-  </si>
-  <si>
     <t>https://acme-test.uipath.com/work-items/98813331</t>
   </si>
   <si>
@@ -91,294 +386,6 @@
   </si>
   <si>
     <t>https://acme-test.uipath.com/work-items/98813389</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813378</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813386</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813407</t>
-  </si>
-  <si>
-    <t>Verify Account Position</t>
-  </si>
-  <si>
-    <t>WI1</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813414</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813359</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813320</t>
-  </si>
-  <si>
-    <t>Calculate Client Security Hash</t>
-  </si>
-  <si>
-    <t>WI5</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813370</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813349</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813347</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813338</t>
-  </si>
-  <si>
-    <t>Process Vendor Invoice</t>
-  </si>
-  <si>
-    <t>WI3</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813341</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813399</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813392</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813375</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813351</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813357</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813321</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813406</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813358</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813394</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813333</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813323</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813345</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813404</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813306</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813372</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813324</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813342</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813397</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813416</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813410</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813314</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813336</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813421</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813310</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813334</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813419</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813363</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813317</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813307</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813415</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813313</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813315</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813426</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813405</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813329</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813423</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813304</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813325</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813350</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813381</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813322</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813383</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813412</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813391</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813408</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813308</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813343</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813369</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813326</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813312</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813360</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813319</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813417</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813316</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813422</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813355</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813328</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813371</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813303</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813403</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813398</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813340</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813388</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813339</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813335</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813424</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813344</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813401</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813418</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813402</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813413</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813400</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813330</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813374</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813387</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813353</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813409</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813385</t>
-  </si>
-  <si>
-    <t>https://acme-test.uipath.com/work-items/98813396</t>
   </si>
 </sst>
 </file>
@@ -753,42 +760,42 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>91</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>92</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>93</v>
       </c>
       <c r="D1" t="s">
-        <v>3</v>
+        <v>94</v>
       </c>
       <c r="E1" t="s">
-        <v>4</v>
+        <v>95</v>
       </c>
       <c r="F1" t="s">
-        <v>5</v>
+        <v>96</v>
       </c>
       <c r="G1" t="s">
-        <v>6</v>
+        <v>97</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B2" t="s">
-        <v>7</v>
+        <v>108</v>
       </c>
       <c r="C2">
         <v>98813332</v>
       </c>
       <c r="D2" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F2" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G2" s="1">
         <v>44693</v>
@@ -796,19 +803,19 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
-        <v>11</v>
+        <v>109</v>
       </c>
       <c r="C3">
         <v>98813366</v>
       </c>
       <c r="D3" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F3" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G3" s="1">
         <v>42934</v>
@@ -816,19 +823,19 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
-        <v>14</v>
+        <v>110</v>
       </c>
       <c r="C4">
         <v>98813331</v>
       </c>
       <c r="D4" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F4" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G4" s="1">
         <v>43824</v>
@@ -836,19 +843,19 @@
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B5" t="s">
-        <v>15</v>
+        <v>111</v>
       </c>
       <c r="C5">
         <v>98813361</v>
       </c>
       <c r="D5" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E5" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G5" s="1">
         <v>44046</v>
@@ -856,19 +863,19 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B6" t="s">
-        <v>16</v>
+        <v>112</v>
       </c>
       <c r="C6">
         <v>98813327</v>
       </c>
       <c r="D6" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F6" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G6" s="1">
         <v>45000</v>
@@ -876,19 +883,19 @@
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B7" t="s">
-        <v>17</v>
+        <v>113</v>
       </c>
       <c r="C7">
         <v>98813380</v>
       </c>
       <c r="D7" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E7" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F7" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G7" s="1">
         <v>44266</v>
@@ -896,19 +903,19 @@
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B8" t="s">
-        <v>18</v>
+        <v>114</v>
       </c>
       <c r="C8">
         <v>98813348</v>
       </c>
       <c r="D8" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E8" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F8" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G8" s="1">
         <v>43582</v>
@@ -916,19 +923,19 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B9" t="s">
-        <v>19</v>
+        <v>115</v>
       </c>
       <c r="C9">
         <v>98813367</v>
       </c>
       <c r="D9" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E9" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F9" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G9" s="1">
         <v>42769</v>
@@ -936,19 +943,19 @@
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B10" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
       <c r="C10">
         <v>98813354</v>
       </c>
       <c r="D10" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E10" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F10" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G10" s="1">
         <v>43152</v>
@@ -956,19 +963,19 @@
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B11" t="s">
-        <v>21</v>
+        <v>117</v>
       </c>
       <c r="C11">
         <v>98813389</v>
       </c>
       <c r="D11" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E11" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F11" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G11" s="1">
         <v>43680</v>
@@ -976,219 +983,219 @@
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B12" t="s">
-        <v>22</v>
+        <v>98</v>
       </c>
       <c r="C12">
-        <v>98813378</v>
+        <v>98813362</v>
       </c>
       <c r="D12" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E12" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F12" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G12" s="1">
-        <v>44125</v>
+        <v>43020</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B13" t="s">
-        <v>23</v>
+        <v>99</v>
       </c>
       <c r="C13">
-        <v>98813386</v>
+        <v>98813382</v>
       </c>
       <c r="D13" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E13" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F13" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G13" s="1">
-        <v>44099</v>
+        <v>42893</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B14" t="s">
-        <v>24</v>
+        <v>100</v>
       </c>
       <c r="C14">
-        <v>98813407</v>
+        <v>98813309</v>
       </c>
       <c r="D14" t="s">
-        <v>25</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>26</v>
+        <v>8</v>
       </c>
       <c r="F14" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G14" s="1">
-        <v>44775</v>
+        <v>44029</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B15" t="s">
-        <v>27</v>
+        <v>101</v>
       </c>
       <c r="C15">
-        <v>98813414</v>
+        <v>98813425</v>
       </c>
       <c r="D15" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E15" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F15" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G15" s="1">
-        <v>43462</v>
+        <v>42792</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.3">
       <c r="B16" t="s">
-        <v>28</v>
+        <v>102</v>
       </c>
       <c r="C16">
-        <v>98813359</v>
+        <v>98813379</v>
       </c>
       <c r="D16" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E16" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F16" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G16" s="1">
-        <v>43557</v>
+        <v>43964</v>
       </c>
     </row>
     <row r="17" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B17" t="s">
-        <v>29</v>
+        <v>103</v>
       </c>
       <c r="C17">
-        <v>98813320</v>
+        <v>98813384</v>
       </c>
       <c r="D17" t="s">
-        <v>30</v>
+        <v>3</v>
       </c>
       <c r="E17" t="s">
-        <v>31</v>
+        <v>4</v>
       </c>
       <c r="F17" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G17" s="1">
-        <v>44916</v>
+        <v>44883</v>
       </c>
     </row>
     <row r="18" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B18" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="C18">
-        <v>98813370</v>
+        <v>98813376</v>
       </c>
       <c r="D18" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E18" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F18" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G18" s="1">
-        <v>44195</v>
+        <v>45023</v>
       </c>
     </row>
     <row r="19" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B19" t="s">
-        <v>33</v>
+        <v>105</v>
       </c>
       <c r="C19">
-        <v>98813349</v>
+        <v>98813390</v>
       </c>
       <c r="D19" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E19" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F19" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G19" s="1">
-        <v>44864</v>
+        <v>43671</v>
       </c>
     </row>
     <row r="20" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B20" t="s">
-        <v>34</v>
+        <v>106</v>
       </c>
       <c r="C20">
-        <v>98813347</v>
+        <v>98813373</v>
       </c>
       <c r="D20" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E20" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F20" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G20" s="1">
-        <v>43354</v>
+        <v>44194</v>
       </c>
     </row>
     <row r="21" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B21" t="s">
-        <v>35</v>
+        <v>107</v>
       </c>
       <c r="C21">
-        <v>98813338</v>
+        <v>98813356</v>
       </c>
       <c r="D21" t="s">
-        <v>36</v>
+        <v>3</v>
       </c>
       <c r="E21" t="s">
-        <v>37</v>
+        <v>4</v>
       </c>
       <c r="F21" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G21" s="1">
-        <v>45162</v>
+        <v>45282</v>
       </c>
     </row>
     <row r="22" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B22" t="s">
-        <v>38</v>
+        <v>11</v>
       </c>
       <c r="C22">
         <v>98813341</v>
       </c>
       <c r="D22" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F22" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G22" s="1">
         <v>44446</v>
@@ -1196,19 +1203,19 @@
     </row>
     <row r="23" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B23" t="s">
-        <v>39</v>
+        <v>12</v>
       </c>
       <c r="C23">
         <v>98813399</v>
       </c>
       <c r="D23" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E23" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G23" s="1">
         <v>44413</v>
@@ -1216,19 +1223,19 @@
     </row>
     <row r="24" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B24" t="s">
-        <v>40</v>
+        <v>13</v>
       </c>
       <c r="C24">
         <v>98813392</v>
       </c>
       <c r="D24" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E24" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G24" s="1">
         <v>43111</v>
@@ -1236,19 +1243,19 @@
     </row>
     <row r="25" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B25" t="s">
-        <v>41</v>
+        <v>14</v>
       </c>
       <c r="C25">
         <v>98813375</v>
       </c>
       <c r="D25" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E25" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F25" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G25" s="1">
         <v>42843</v>
@@ -1256,19 +1263,19 @@
     </row>
     <row r="26" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B26" t="s">
-        <v>42</v>
+        <v>15</v>
       </c>
       <c r="C26">
         <v>98813351</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E26" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F26" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G26" s="1">
         <v>44027</v>
@@ -1276,19 +1283,19 @@
     </row>
     <row r="27" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B27" t="s">
-        <v>43</v>
+        <v>16</v>
       </c>
       <c r="C27">
         <v>98813357</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E27" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F27" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G27" s="1">
         <v>44285</v>
@@ -1296,19 +1303,19 @@
     </row>
     <row r="28" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B28" t="s">
-        <v>44</v>
+        <v>17</v>
       </c>
       <c r="C28">
         <v>98813321</v>
       </c>
       <c r="D28" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E28" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F28" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G28" s="1">
         <v>43466</v>
@@ -1316,19 +1323,19 @@
     </row>
     <row r="29" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B29" t="s">
-        <v>45</v>
+        <v>18</v>
       </c>
       <c r="C29">
         <v>98813406</v>
       </c>
       <c r="D29" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F29" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G29" s="1">
         <v>45128</v>
@@ -1336,19 +1343,19 @@
     </row>
     <row r="30" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B30" t="s">
-        <v>46</v>
+        <v>19</v>
       </c>
       <c r="C30">
         <v>98813358</v>
       </c>
       <c r="D30" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E30" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F30" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G30" s="1">
         <v>45294</v>
@@ -1356,19 +1363,19 @@
     </row>
     <row r="31" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B31" t="s">
-        <v>47</v>
+        <v>20</v>
       </c>
       <c r="C31">
         <v>98813394</v>
       </c>
       <c r="D31" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E31" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G31" s="1">
         <v>44341</v>
@@ -1376,19 +1383,19 @@
     </row>
     <row r="32" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B32" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C32">
         <v>98813333</v>
       </c>
       <c r="D32" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F32" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G32" s="1">
         <v>43716</v>
@@ -1396,19 +1403,19 @@
     </row>
     <row r="33" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B33" t="s">
-        <v>49</v>
+        <v>22</v>
       </c>
       <c r="C33">
         <v>98813323</v>
       </c>
       <c r="D33" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F33" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G33" s="1">
         <v>43314</v>
@@ -1416,19 +1423,19 @@
     </row>
     <row r="34" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B34" t="s">
-        <v>50</v>
+        <v>23</v>
       </c>
       <c r="C34">
         <v>98813345</v>
       </c>
       <c r="D34" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E34" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F34" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G34" s="1">
         <v>43061</v>
@@ -1436,19 +1443,19 @@
     </row>
     <row r="35" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B35" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C35">
         <v>98813404</v>
       </c>
       <c r="D35" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E35" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G35" s="1">
         <v>43925</v>
@@ -1456,19 +1463,19 @@
     </row>
     <row r="36" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B36" t="s">
-        <v>52</v>
+        <v>25</v>
       </c>
       <c r="C36">
         <v>98813306</v>
       </c>
       <c r="D36" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E36" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F36" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G36" s="1">
         <v>43988</v>
@@ -1476,19 +1483,19 @@
     </row>
     <row r="37" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B37" t="s">
-        <v>53</v>
+        <v>26</v>
       </c>
       <c r="C37">
         <v>98813372</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E37" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F37" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G37" s="1">
         <v>44405</v>
@@ -1496,19 +1503,19 @@
     </row>
     <row r="38" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B38" t="s">
-        <v>54</v>
+        <v>27</v>
       </c>
       <c r="C38">
         <v>98813324</v>
       </c>
       <c r="D38" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F38" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G38" s="1">
         <v>43749</v>
@@ -1516,19 +1523,19 @@
     </row>
     <row r="39" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B39" t="s">
-        <v>55</v>
+        <v>28</v>
       </c>
       <c r="C39">
         <v>98813342</v>
       </c>
       <c r="D39" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E39" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F39" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G39" s="1">
         <v>43753</v>
@@ -1536,19 +1543,19 @@
     </row>
     <row r="40" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B40" t="s">
-        <v>56</v>
+        <v>29</v>
       </c>
       <c r="C40">
         <v>98813397</v>
       </c>
       <c r="D40" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F40" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G40" s="1">
         <v>43928</v>
@@ -1556,19 +1563,19 @@
     </row>
     <row r="41" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B41" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C41">
         <v>98813416</v>
       </c>
       <c r="D41" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F41" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G41" s="1">
         <v>45020</v>
@@ -1576,19 +1583,19 @@
     </row>
     <row r="42" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B42" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="C42">
         <v>98813410</v>
       </c>
       <c r="D42" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E42" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F42" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G42" s="1">
         <v>45147</v>
@@ -1596,19 +1603,19 @@
     </row>
     <row r="43" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B43" t="s">
-        <v>59</v>
+        <v>32</v>
       </c>
       <c r="C43">
         <v>98813314</v>
       </c>
       <c r="D43" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E43" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F43" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G43" s="1">
         <v>43352</v>
@@ -1616,19 +1623,19 @@
     </row>
     <row r="44" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B44" t="s">
-        <v>60</v>
+        <v>33</v>
       </c>
       <c r="C44">
         <v>98813336</v>
       </c>
       <c r="D44" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F44" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G44" s="1">
         <v>43365</v>
@@ -1636,19 +1643,19 @@
     </row>
     <row r="45" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B45" t="s">
-        <v>61</v>
+        <v>34</v>
       </c>
       <c r="C45">
         <v>98813421</v>
       </c>
       <c r="D45" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E45" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F45" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G45" s="1">
         <v>44524</v>
@@ -1656,19 +1663,19 @@
     </row>
     <row r="46" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B46" t="s">
-        <v>62</v>
+        <v>35</v>
       </c>
       <c r="C46">
         <v>98813310</v>
       </c>
       <c r="D46" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E46" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F46" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G46" s="1">
         <v>43711</v>
@@ -1676,19 +1683,19 @@
     </row>
     <row r="47" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B47" t="s">
-        <v>63</v>
+        <v>36</v>
       </c>
       <c r="C47">
         <v>98813334</v>
       </c>
       <c r="D47" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E47" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F47" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G47" s="1">
         <v>44393</v>
@@ -1696,19 +1703,19 @@
     </row>
     <row r="48" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B48" t="s">
-        <v>64</v>
+        <v>37</v>
       </c>
       <c r="C48">
         <v>98813419</v>
       </c>
       <c r="D48" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E48" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F48" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G48" s="1">
         <v>43732</v>
@@ -1716,19 +1723,19 @@
     </row>
     <row r="49" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B49" t="s">
-        <v>65</v>
+        <v>38</v>
       </c>
       <c r="C49">
         <v>98813363</v>
       </c>
       <c r="D49" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E49" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F49" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G49" s="1">
         <v>43585</v>
@@ -1736,19 +1743,19 @@
     </row>
     <row r="50" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B50" t="s">
-        <v>66</v>
+        <v>39</v>
       </c>
       <c r="C50">
         <v>98813317</v>
       </c>
       <c r="D50" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E50" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F50" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G50" s="1">
         <v>45026</v>
@@ -1756,19 +1763,19 @@
     </row>
     <row r="51" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B51" t="s">
-        <v>67</v>
+        <v>40</v>
       </c>
       <c r="C51">
         <v>98813307</v>
       </c>
       <c r="D51" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E51" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F51" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G51" s="1">
         <v>42773</v>
@@ -1776,19 +1783,19 @@
     </row>
     <row r="52" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B52" t="s">
-        <v>68</v>
+        <v>41</v>
       </c>
       <c r="C52">
         <v>98813415</v>
       </c>
       <c r="D52" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E52" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F52" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G52" s="1">
         <v>42873</v>
@@ -1796,19 +1803,19 @@
     </row>
     <row r="53" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B53" t="s">
-        <v>69</v>
+        <v>42</v>
       </c>
       <c r="C53">
         <v>98813313</v>
       </c>
       <c r="D53" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E53" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F53" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G53" s="1">
         <v>42822</v>
@@ -1816,19 +1823,19 @@
     </row>
     <row r="54" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B54" t="s">
-        <v>70</v>
+        <v>43</v>
       </c>
       <c r="C54">
         <v>98813315</v>
       </c>
       <c r="D54" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E54" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F54" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G54" s="1">
         <v>43994</v>
@@ -1836,19 +1843,19 @@
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B55" t="s">
-        <v>71</v>
+        <v>44</v>
       </c>
       <c r="C55">
         <v>98813426</v>
       </c>
       <c r="D55" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E55" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F55" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G55" s="1">
         <v>43067</v>
@@ -1856,19 +1863,19 @@
     </row>
     <row r="56" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B56" t="s">
-        <v>72</v>
+        <v>45</v>
       </c>
       <c r="C56">
         <v>98813405</v>
       </c>
       <c r="D56" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E56" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F56" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G56" s="1">
         <v>42929</v>
@@ -1876,19 +1883,19 @@
     </row>
     <row r="57" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B57" t="s">
-        <v>73</v>
+        <v>46</v>
       </c>
       <c r="C57">
         <v>98813329</v>
       </c>
       <c r="D57" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E57" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F57" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G57" s="1">
         <v>44693</v>
@@ -1896,19 +1903,19 @@
     </row>
     <row r="58" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B58" t="s">
-        <v>74</v>
+        <v>47</v>
       </c>
       <c r="C58">
         <v>98813423</v>
       </c>
       <c r="D58" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E58" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F58" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G58" s="1">
         <v>44307</v>
@@ -1916,19 +1923,19 @@
     </row>
     <row r="59" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B59" t="s">
-        <v>75</v>
+        <v>48</v>
       </c>
       <c r="C59">
         <v>98813304</v>
       </c>
       <c r="D59" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E59" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F59" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G59" s="1">
         <v>44157</v>
@@ -1936,19 +1943,19 @@
     </row>
     <row r="60" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B60" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C60">
         <v>98813325</v>
       </c>
       <c r="D60" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E60" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F60" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G60" s="1">
         <v>43339</v>
@@ -1956,19 +1963,19 @@
     </row>
     <row r="61" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B61" t="s">
-        <v>77</v>
+        <v>50</v>
       </c>
       <c r="C61">
         <v>98813350</v>
       </c>
       <c r="D61" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E61" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F61" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G61" s="1">
         <v>43260</v>
@@ -1976,19 +1983,19 @@
     </row>
     <row r="62" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B62" t="s">
-        <v>78</v>
+        <v>51</v>
       </c>
       <c r="C62">
         <v>98813381</v>
       </c>
       <c r="D62" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E62" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F62" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G62" s="1">
         <v>44680</v>
@@ -1996,19 +2003,19 @@
     </row>
     <row r="63" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B63" t="s">
-        <v>79</v>
+        <v>52</v>
       </c>
       <c r="C63">
         <v>98813322</v>
       </c>
       <c r="D63" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E63" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F63" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G63" s="1">
         <v>44551</v>
@@ -2016,19 +2023,19 @@
     </row>
     <row r="64" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B64" t="s">
-        <v>80</v>
+        <v>53</v>
       </c>
       <c r="C64">
         <v>98813383</v>
       </c>
       <c r="D64" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E64" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F64" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G64" s="1">
         <v>42891</v>
@@ -2036,19 +2043,19 @@
     </row>
     <row r="65" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B65" t="s">
-        <v>81</v>
+        <v>54</v>
       </c>
       <c r="C65">
         <v>98813412</v>
       </c>
       <c r="D65" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F65" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G65" s="1">
         <v>43213</v>
@@ -2056,19 +2063,19 @@
     </row>
     <row r="66" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B66" t="s">
-        <v>82</v>
+        <v>55</v>
       </c>
       <c r="C66">
         <v>98813391</v>
       </c>
       <c r="D66" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F66" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G66" s="1">
         <v>42871</v>
@@ -2076,19 +2083,19 @@
     </row>
     <row r="67" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B67" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C67">
         <v>98813408</v>
       </c>
       <c r="D67" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F67" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G67" s="1">
         <v>44836</v>
@@ -2096,19 +2103,19 @@
     </row>
     <row r="68" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B68" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
       <c r="C68">
         <v>98813308</v>
       </c>
       <c r="D68" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E68" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F68" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G68" s="1">
         <v>43070</v>
@@ -2116,19 +2123,19 @@
     </row>
     <row r="69" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B69" t="s">
-        <v>85</v>
+        <v>58</v>
       </c>
       <c r="C69">
         <v>98813343</v>
       </c>
       <c r="D69" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E69" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F69" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G69" s="1">
         <v>44122</v>
@@ -2136,19 +2143,19 @@
     </row>
     <row r="70" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B70" t="s">
-        <v>86</v>
+        <v>59</v>
       </c>
       <c r="C70">
         <v>98813369</v>
       </c>
       <c r="D70" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E70" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F70" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G70" s="1">
         <v>43451</v>
@@ -2156,19 +2163,19 @@
     </row>
     <row r="71" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B71" t="s">
-        <v>87</v>
+        <v>60</v>
       </c>
       <c r="C71">
         <v>98813326</v>
       </c>
       <c r="D71" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F71" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G71" s="1">
         <v>44759</v>
@@ -2176,19 +2183,19 @@
     </row>
     <row r="72" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B72" t="s">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="C72">
         <v>98813312</v>
       </c>
       <c r="D72" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E72" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F72" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G72" s="1">
         <v>44289</v>
@@ -2196,19 +2203,19 @@
     </row>
     <row r="73" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B73" t="s">
-        <v>89</v>
+        <v>62</v>
       </c>
       <c r="C73">
         <v>98813360</v>
       </c>
       <c r="D73" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E73" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F73" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G73" s="1">
         <v>44372</v>
@@ -2216,19 +2223,19 @@
     </row>
     <row r="74" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B74" t="s">
-        <v>90</v>
+        <v>63</v>
       </c>
       <c r="C74">
         <v>98813319</v>
       </c>
       <c r="D74" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E74" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F74" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G74" s="1">
         <v>44396</v>
@@ -2236,19 +2243,19 @@
     </row>
     <row r="75" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B75" t="s">
-        <v>91</v>
+        <v>64</v>
       </c>
       <c r="C75">
         <v>98813417</v>
       </c>
       <c r="D75" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E75" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F75" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G75" s="1">
         <v>43898</v>
@@ -2256,19 +2263,19 @@
     </row>
     <row r="76" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B76" t="s">
-        <v>92</v>
+        <v>65</v>
       </c>
       <c r="C76">
         <v>98813316</v>
       </c>
       <c r="D76" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E76" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F76" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G76" s="1">
         <v>45299</v>
@@ -2276,19 +2283,19 @@
     </row>
     <row r="77" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B77" t="s">
-        <v>93</v>
+        <v>66</v>
       </c>
       <c r="C77">
         <v>98813422</v>
       </c>
       <c r="D77" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E77" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F77" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G77" s="1">
         <v>44802</v>
@@ -2296,19 +2303,19 @@
     </row>
     <row r="78" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B78" t="s">
-        <v>94</v>
+        <v>67</v>
       </c>
       <c r="C78">
         <v>98813355</v>
       </c>
       <c r="D78" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E78" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F78" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G78" s="1">
         <v>44499</v>
@@ -2316,19 +2323,19 @@
     </row>
     <row r="79" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B79" t="s">
-        <v>95</v>
+        <v>68</v>
       </c>
       <c r="C79">
         <v>98813328</v>
       </c>
       <c r="D79" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E79" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F79" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G79" s="1">
         <v>45101</v>
@@ -2336,19 +2343,19 @@
     </row>
     <row r="80" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B80" t="s">
-        <v>96</v>
+        <v>69</v>
       </c>
       <c r="C80">
         <v>98813371</v>
       </c>
       <c r="D80" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E80" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F80" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G80" s="1">
         <v>43215</v>
@@ -2356,19 +2363,19 @@
     </row>
     <row r="81" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B81" t="s">
-        <v>97</v>
+        <v>70</v>
       </c>
       <c r="C81">
         <v>98813303</v>
       </c>
       <c r="D81" t="s">
-        <v>30</v>
+        <v>7</v>
       </c>
       <c r="E81" t="s">
-        <v>31</v>
+        <v>8</v>
       </c>
       <c r="F81" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G81" s="1">
         <v>44076</v>
@@ -2376,19 +2383,19 @@
     </row>
     <row r="82" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B82" t="s">
-        <v>98</v>
+        <v>71</v>
       </c>
       <c r="C82">
         <v>98813403</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E82" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F82" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G82" s="1">
         <v>43840</v>
@@ -2396,19 +2403,19 @@
     </row>
     <row r="83" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B83" t="s">
-        <v>99</v>
+        <v>72</v>
       </c>
       <c r="C83">
         <v>98813398</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E83" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G83" s="1">
         <v>43562</v>
@@ -2416,19 +2423,19 @@
     </row>
     <row r="84" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B84" t="s">
-        <v>100</v>
+        <v>73</v>
       </c>
       <c r="C84">
         <v>98813340</v>
       </c>
       <c r="D84" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E84" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F84" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G84" s="1">
         <v>44146</v>
@@ -2436,19 +2443,19 @@
     </row>
     <row r="85" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B85" t="s">
-        <v>101</v>
+        <v>74</v>
       </c>
       <c r="C85">
         <v>98813388</v>
       </c>
       <c r="D85" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E85" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F85" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G85" s="1">
         <v>44898</v>
@@ -2456,19 +2463,19 @@
     </row>
     <row r="86" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B86" t="s">
-        <v>102</v>
+        <v>75</v>
       </c>
       <c r="C86">
         <v>98813339</v>
       </c>
       <c r="D86" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E86" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F86" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G86" s="1">
         <v>44189</v>
@@ -2476,19 +2483,19 @@
     </row>
     <row r="87" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B87" t="s">
-        <v>103</v>
+        <v>76</v>
       </c>
       <c r="C87">
         <v>98813335</v>
       </c>
       <c r="D87" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E87" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F87" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G87" s="1">
         <v>44095</v>
@@ -2496,19 +2503,19 @@
     </row>
     <row r="88" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B88" t="s">
-        <v>104</v>
+        <v>77</v>
       </c>
       <c r="C88">
         <v>98813424</v>
       </c>
       <c r="D88" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F88" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G88" s="1">
         <v>44979</v>
@@ -2516,19 +2523,19 @@
     </row>
     <row r="89" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B89" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="C89">
         <v>98813344</v>
       </c>
       <c r="D89" t="s">
-        <v>36</v>
+        <v>9</v>
       </c>
       <c r="E89" t="s">
-        <v>37</v>
+        <v>10</v>
       </c>
       <c r="F89" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G89" s="1">
         <v>44176</v>
@@ -2536,19 +2543,19 @@
     </row>
     <row r="90" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B90" t="s">
-        <v>106</v>
+        <v>79</v>
       </c>
       <c r="C90">
         <v>98813401</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E90" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F90" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G90" s="1">
         <v>44188</v>
@@ -2556,19 +2563,19 @@
     </row>
     <row r="91" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B91" t="s">
-        <v>107</v>
+        <v>80</v>
       </c>
       <c r="C91">
         <v>98813418</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F91" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G91" s="1">
         <v>42796</v>
@@ -2576,19 +2583,19 @@
     </row>
     <row r="92" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B92" t="s">
-        <v>108</v>
+        <v>81</v>
       </c>
       <c r="C92">
         <v>98813402</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E92" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F92" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G92" s="1">
         <v>44673</v>
@@ -2596,19 +2603,19 @@
     </row>
     <row r="93" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B93" t="s">
-        <v>109</v>
+        <v>82</v>
       </c>
       <c r="C93">
         <v>98813413</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E93" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F93" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G93" s="1">
         <v>42837</v>
@@ -2616,19 +2623,19 @@
     </row>
     <row r="94" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B94" t="s">
-        <v>110</v>
+        <v>83</v>
       </c>
       <c r="C94">
         <v>98813400</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E94" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F94" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G94" s="1">
         <v>44552</v>
@@ -2636,19 +2643,19 @@
     </row>
     <row r="95" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B95" t="s">
-        <v>111</v>
+        <v>84</v>
       </c>
       <c r="C95">
         <v>98813330</v>
       </c>
       <c r="D95" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E95" t="s">
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="F95" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G95" s="1">
         <v>44606</v>
@@ -2656,19 +2663,19 @@
     </row>
     <row r="96" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B96" t="s">
-        <v>112</v>
+        <v>85</v>
       </c>
       <c r="C96">
         <v>98813374</v>
       </c>
       <c r="D96" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E96" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F96" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G96" s="1">
         <v>42953</v>
@@ -2676,19 +2683,19 @@
     </row>
     <row r="97" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B97" t="s">
-        <v>113</v>
+        <v>86</v>
       </c>
       <c r="C97">
         <v>98813387</v>
       </c>
       <c r="D97" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E97" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F97" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G97" s="1">
         <v>44594</v>
@@ -2696,19 +2703,19 @@
     </row>
     <row r="98" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B98" t="s">
-        <v>114</v>
+        <v>87</v>
       </c>
       <c r="C98">
         <v>98813353</v>
       </c>
       <c r="D98" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E98" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F98" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G98" s="1">
         <v>44310</v>
@@ -2716,19 +2723,19 @@
     </row>
     <row r="99" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B99" t="s">
-        <v>115</v>
+        <v>88</v>
       </c>
       <c r="C99">
         <v>98813409</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E99" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F99" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G99" s="1">
         <v>45296</v>
@@ -2736,19 +2743,19 @@
     </row>
     <row r="100" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B100" t="s">
-        <v>116</v>
+        <v>89</v>
       </c>
       <c r="C100">
         <v>98813385</v>
       </c>
       <c r="D100" t="s">
-        <v>12</v>
+        <v>3</v>
       </c>
       <c r="E100" t="s">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="F100" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G100" s="1">
         <v>43082</v>
@@ -2756,19 +2763,19 @@
     </row>
     <row r="101" spans="2:7" x14ac:dyDescent="0.3">
       <c r="B101" t="s">
-        <v>117</v>
+        <v>90</v>
       </c>
       <c r="C101">
         <v>98813396</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E101" t="s">
-        <v>26</v>
+        <v>6</v>
       </c>
       <c r="F101" t="s">
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="G101" s="1">
         <v>44500</v>
